--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vegfb-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vegfb-Nrp1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.181445333333333</v>
+        <v>1.721958666666667</v>
       </c>
       <c r="H2">
-        <v>6.544335999999999</v>
+        <v>5.165876000000001</v>
       </c>
       <c r="I2">
-        <v>0.1058843243701343</v>
+        <v>0.07789986924239836</v>
       </c>
       <c r="J2">
-        <v>0.1058843243701343</v>
+        <v>0.07789986924239835</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>118.0470123333333</v>
+        <v>127.3992563333333</v>
       </c>
       <c r="N2">
-        <v>354.141037</v>
+        <v>382.197769</v>
       </c>
       <c r="O2">
-        <v>0.4657216250363637</v>
+        <v>0.4838549810199306</v>
       </c>
       <c r="P2">
-        <v>0.4657216250363638</v>
+        <v>0.4838549810199307</v>
       </c>
       <c r="Q2">
-        <v>257.5131041684924</v>
+        <v>219.3762535700716</v>
       </c>
       <c r="R2">
-        <v>2317.617937516432</v>
+        <v>1974.386282130644</v>
       </c>
       <c r="S2">
-        <v>0.04931261961153638</v>
+        <v>0.03769223975373574</v>
       </c>
       <c r="T2">
-        <v>0.04931261961153639</v>
+        <v>0.03769223975373574</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.181445333333333</v>
+        <v>1.721958666666667</v>
       </c>
       <c r="H3">
-        <v>6.544335999999999</v>
+        <v>5.165876000000001</v>
       </c>
       <c r="I3">
-        <v>0.1058843243701343</v>
+        <v>0.07789986924239836</v>
       </c>
       <c r="J3">
-        <v>0.1058843243701343</v>
+        <v>0.07789986924239835</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>59.36586533333334</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N3">
         <v>178.097596</v>
       </c>
       <c r="O3">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="P3">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="Q3">
-        <v>129.5033898906951</v>
+        <v>102.2255663148996</v>
       </c>
       <c r="R3">
-        <v>1165.530509016256</v>
+        <v>920.0300968340961</v>
       </c>
       <c r="S3">
-        <v>0.02479932593995619</v>
+        <v>0.01756393635043947</v>
       </c>
       <c r="T3">
-        <v>0.02479932593995619</v>
+        <v>0.01756393635043947</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.181445333333333</v>
+        <v>1.721958666666667</v>
       </c>
       <c r="H4">
-        <v>6.544335999999999</v>
+        <v>5.165876000000001</v>
       </c>
       <c r="I4">
-        <v>0.1058843243701343</v>
+        <v>0.07789986924239836</v>
       </c>
       <c r="J4">
-        <v>0.1058843243701343</v>
+        <v>0.07789986924239835</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.21324333333333</v>
+        <v>16.63275166666667</v>
       </c>
       <c r="N4">
-        <v>57.63973</v>
+        <v>49.898255</v>
       </c>
       <c r="O4">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="P4">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="Q4">
-        <v>41.91264000769777</v>
+        <v>28.64091088293112</v>
       </c>
       <c r="R4">
-        <v>377.21376006928</v>
+        <v>257.76819794638</v>
       </c>
       <c r="S4">
-        <v>0.008026085042501477</v>
+        <v>0.004920952300883377</v>
       </c>
       <c r="T4">
-        <v>0.008026085042501477</v>
+        <v>0.004920952300883376</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.181445333333333</v>
+        <v>1.721958666666667</v>
       </c>
       <c r="H5">
-        <v>6.544335999999999</v>
+        <v>5.165876000000001</v>
       </c>
       <c r="I5">
-        <v>0.1058843243701343</v>
+        <v>0.07789986924239836</v>
       </c>
       <c r="J5">
-        <v>0.1058843243701343</v>
+        <v>0.07789986924239835</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>56.84506433333333</v>
+        <v>59.90262233333334</v>
       </c>
       <c r="N5">
-        <v>170.535193</v>
+        <v>179.707867</v>
       </c>
       <c r="O5">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415657</v>
       </c>
       <c r="P5">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415658</v>
       </c>
       <c r="Q5">
-        <v>124.0044003129831</v>
+        <v>103.1498396829436</v>
       </c>
       <c r="R5">
-        <v>1116.039602816848</v>
+        <v>928.3485571464922</v>
       </c>
       <c r="S5">
-        <v>0.02374629377614022</v>
+        <v>0.01772274083733978</v>
       </c>
       <c r="T5">
-        <v>0.02374629377614022</v>
+        <v>0.01772274083733978</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>26.381805</v>
       </c>
       <c r="I6">
-        <v>0.4268453817300381</v>
+        <v>0.3978297504389287</v>
       </c>
       <c r="J6">
-        <v>0.4268453817300381</v>
+        <v>0.3978297504389286</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>118.0470123333333</v>
+        <v>127.3992563333333</v>
       </c>
       <c r="N6">
-        <v>354.141037</v>
+        <v>382.197769</v>
       </c>
       <c r="O6">
-        <v>0.4657216250363637</v>
+        <v>0.4838549810199306</v>
       </c>
       <c r="P6">
-        <v>0.4657216250363638</v>
+        <v>0.4838549810199307</v>
       </c>
       <c r="Q6">
-        <v>1038.097753403531</v>
+        <v>1120.340779243671</v>
       </c>
       <c r="R6">
-        <v>9342.879780631785</v>
+        <v>10083.06701319305</v>
       </c>
       <c r="S6">
-        <v>0.1987911248185803</v>
+        <v>0.1924919063477916</v>
       </c>
       <c r="T6">
-        <v>0.1987911248185804</v>
+        <v>0.1924919063477916</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>26.381805</v>
       </c>
       <c r="I7">
-        <v>0.4268453817300381</v>
+        <v>0.3978297504389287</v>
       </c>
       <c r="J7">
-        <v>0.4268453817300381</v>
+        <v>0.3978297504389286</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.36586533333334</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N7">
         <v>178.097596</v>
       </c>
       <c r="O7">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="P7">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="Q7">
-        <v>522.0595609600866</v>
+        <v>522.0595609600865</v>
       </c>
       <c r="R7">
         <v>4698.53604864078</v>
       </c>
       <c r="S7">
-        <v>0.09997209511849116</v>
+        <v>0.08969792225552947</v>
       </c>
       <c r="T7">
-        <v>0.09997209511849116</v>
+        <v>0.08969792225552949</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>26.381805</v>
       </c>
       <c r="I8">
-        <v>0.4268453817300381</v>
+        <v>0.3978297504389287</v>
       </c>
       <c r="J8">
-        <v>0.4268453817300381</v>
+        <v>0.3978297504389286</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.21324333333333</v>
+        <v>16.63275166666667</v>
       </c>
       <c r="N8">
-        <v>57.63973</v>
+        <v>49.898255</v>
       </c>
       <c r="O8">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="P8">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="Q8">
-        <v>168.9600130125167</v>
+        <v>146.2673370278083</v>
       </c>
       <c r="R8">
-        <v>1520.64011711265</v>
+        <v>1316.406033250275</v>
       </c>
       <c r="S8">
-        <v>0.03235509461994169</v>
+        <v>0.02513099501734199</v>
       </c>
       <c r="T8">
-        <v>0.03235509461994169</v>
+        <v>0.02513099501734198</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>26.381805</v>
       </c>
       <c r="I9">
-        <v>0.4268453817300381</v>
+        <v>0.3978297504389287</v>
       </c>
       <c r="J9">
-        <v>0.4268453817300381</v>
+        <v>0.3978297504389286</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>56.84506433333333</v>
+        <v>59.90262233333334</v>
       </c>
       <c r="N9">
-        <v>170.535193</v>
+        <v>179.707867</v>
       </c>
       <c r="O9">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415657</v>
       </c>
       <c r="P9">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415658</v>
       </c>
       <c r="Q9">
-        <v>499.8918008181516</v>
+        <v>526.7797671288816</v>
       </c>
       <c r="R9">
-        <v>4499.026207363365</v>
+        <v>4741.017904159936</v>
       </c>
       <c r="S9">
-        <v>0.09572706717302487</v>
+        <v>0.09050892681826561</v>
       </c>
       <c r="T9">
-        <v>0.09572706717302487</v>
+        <v>0.09050892681826563</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.428052</v>
+        <v>5.953778333333333</v>
       </c>
       <c r="H10">
-        <v>10.284156</v>
+        <v>17.861335</v>
       </c>
       <c r="I10">
-        <v>0.1663928792435264</v>
+        <v>0.269343604258924</v>
       </c>
       <c r="J10">
-        <v>0.1663928792435264</v>
+        <v>0.269343604258924</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>118.0470123333333</v>
+        <v>127.3992563333333</v>
       </c>
       <c r="N10">
-        <v>354.141037</v>
+        <v>382.197769</v>
       </c>
       <c r="O10">
-        <v>0.4657216250363637</v>
+        <v>0.4838549810199306</v>
       </c>
       <c r="P10">
-        <v>0.4657216250363638</v>
+        <v>0.4838549810199307</v>
       </c>
       <c r="Q10">
-        <v>404.6712967233079</v>
+        <v>758.5069320401794</v>
       </c>
       <c r="R10">
-        <v>3642.041670509771</v>
+        <v>6826.562388361615</v>
       </c>
       <c r="S10">
-        <v>0.07749276211577455</v>
+        <v>0.1303232445265413</v>
       </c>
       <c r="T10">
-        <v>0.07749276211577456</v>
+        <v>0.1303232445265414</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.428052</v>
+        <v>5.953778333333333</v>
       </c>
       <c r="H11">
-        <v>10.284156</v>
+        <v>17.861335</v>
       </c>
       <c r="I11">
-        <v>0.1663928792435264</v>
+        <v>0.269343604258924</v>
       </c>
       <c r="J11">
-        <v>0.1663928792435264</v>
+        <v>0.269343604258924</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>59.36586533333334</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N11">
         <v>178.097596</v>
       </c>
       <c r="O11">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="P11">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="Q11">
-        <v>203.509273387664</v>
+        <v>353.4512027611844</v>
       </c>
       <c r="R11">
-        <v>1831.583460488976</v>
+        <v>3181.06082485066</v>
       </c>
       <c r="S11">
-        <v>0.03897112505552223</v>
+        <v>0.06072839361105002</v>
       </c>
       <c r="T11">
-        <v>0.03897112505552223</v>
+        <v>0.06072839361105004</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.428052</v>
+        <v>5.953778333333333</v>
       </c>
       <c r="H12">
-        <v>10.284156</v>
+        <v>17.861335</v>
       </c>
       <c r="I12">
-        <v>0.1663928792435264</v>
+        <v>0.269343604258924</v>
       </c>
       <c r="J12">
-        <v>0.1663928792435264</v>
+        <v>0.269343604258924</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.21324333333333</v>
+        <v>16.63275166666667</v>
       </c>
       <c r="N12">
-        <v>57.63973</v>
+        <v>49.898255</v>
       </c>
       <c r="O12">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="P12">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="Q12">
-        <v>65.86399723532</v>
+        <v>99.02771649671389</v>
       </c>
       <c r="R12">
-        <v>592.77597511788</v>
+        <v>891.249448470425</v>
       </c>
       <c r="S12">
-        <v>0.01261266393509622</v>
+        <v>0.01701449619872772</v>
       </c>
       <c r="T12">
-        <v>0.01261266393509622</v>
+        <v>0.01701449619872772</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.428052</v>
+        <v>5.953778333333333</v>
       </c>
       <c r="H13">
-        <v>10.284156</v>
+        <v>17.861335</v>
       </c>
       <c r="I13">
-        <v>0.1663928792435264</v>
+        <v>0.269343604258924</v>
       </c>
       <c r="J13">
-        <v>0.1663928792435264</v>
+        <v>0.269343604258924</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>56.84506433333333</v>
+        <v>59.90262233333334</v>
       </c>
       <c r="N13">
-        <v>170.535193</v>
+        <v>179.707867</v>
       </c>
       <c r="O13">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415657</v>
       </c>
       <c r="P13">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415658</v>
       </c>
       <c r="Q13">
-        <v>194.867836478012</v>
+        <v>356.6469349580495</v>
       </c>
       <c r="R13">
-        <v>1753.810528302108</v>
+        <v>3209.822414622446</v>
       </c>
       <c r="S13">
-        <v>0.0373163281371334</v>
+        <v>0.06127746992260485</v>
       </c>
       <c r="T13">
-        <v>0.0373163281371334</v>
+        <v>0.06127746992260486</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.198723333333334</v>
+        <v>5.635097666666667</v>
       </c>
       <c r="H14">
-        <v>18.59617</v>
+        <v>16.905293</v>
       </c>
       <c r="I14">
-        <v>0.3008774146563013</v>
+        <v>0.2549267760597491</v>
       </c>
       <c r="J14">
-        <v>0.3008774146563013</v>
+        <v>0.254926776059749</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>118.0470123333333</v>
+        <v>127.3992563333333</v>
       </c>
       <c r="N14">
-        <v>354.141037</v>
+        <v>382.197769</v>
       </c>
       <c r="O14">
-        <v>0.4657216250363637</v>
+        <v>0.4838549810199306</v>
       </c>
       <c r="P14">
-        <v>0.4657216250363638</v>
+        <v>0.4838549810199307</v>
       </c>
       <c r="Q14">
-        <v>731.7407697809211</v>
+        <v>717.9072520990352</v>
       </c>
       <c r="R14">
-        <v>6585.66692802829</v>
+        <v>6461.165268891317</v>
       </c>
       <c r="S14">
-        <v>0.1401251184904725</v>
+        <v>0.123347590391862</v>
       </c>
       <c r="T14">
-        <v>0.1401251184904725</v>
+        <v>0.123347590391862</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.198723333333334</v>
+        <v>5.635097666666667</v>
       </c>
       <c r="H15">
-        <v>18.59617</v>
+        <v>16.905293</v>
       </c>
       <c r="I15">
-        <v>0.3008774146563013</v>
+        <v>0.2549267760597491</v>
       </c>
       <c r="J15">
-        <v>0.3008774146563013</v>
+        <v>0.254926776059749</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.36586533333334</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N15">
         <v>178.097596</v>
       </c>
       <c r="O15">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="P15">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="Q15">
-        <v>367.9925746452578</v>
+        <v>334.5324492195142</v>
       </c>
       <c r="R15">
-        <v>3311.93317180732</v>
+        <v>3010.792042975628</v>
       </c>
       <c r="S15">
-        <v>0.07046894918977803</v>
+        <v>0.0574778585931079</v>
       </c>
       <c r="T15">
-        <v>0.07046894918977803</v>
+        <v>0.0574778585931079</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.198723333333334</v>
+        <v>5.635097666666667</v>
       </c>
       <c r="H16">
-        <v>18.59617</v>
+        <v>16.905293</v>
       </c>
       <c r="I16">
-        <v>0.3008774146563013</v>
+        <v>0.2549267760597491</v>
       </c>
       <c r="J16">
-        <v>0.3008774146563013</v>
+        <v>0.254926776059749</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.21324333333333</v>
+        <v>16.63275166666667</v>
       </c>
       <c r="N16">
-        <v>57.63973</v>
+        <v>49.898255</v>
       </c>
       <c r="O16">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="P16">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="Q16">
-        <v>119.0975797593445</v>
+        <v>93.72718010707945</v>
       </c>
       <c r="R16">
-        <v>1071.8782178341</v>
+        <v>843.544620963715</v>
       </c>
       <c r="S16">
-        <v>0.02280665935930165</v>
+        <v>0.01610378191142366</v>
       </c>
       <c r="T16">
-        <v>0.02280665935930165</v>
+        <v>0.01610378191142366</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.198723333333334</v>
+        <v>5.635097666666667</v>
       </c>
       <c r="H17">
-        <v>18.59617</v>
+        <v>16.905293</v>
       </c>
       <c r="I17">
-        <v>0.3008774146563013</v>
+        <v>0.2549267760597491</v>
       </c>
       <c r="J17">
-        <v>0.3008774146563013</v>
+        <v>0.254926776059749</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>56.84506433333333</v>
+        <v>59.90262233333334</v>
       </c>
       <c r="N17">
-        <v>170.535193</v>
+        <v>179.707867</v>
       </c>
       <c r="O17">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415657</v>
       </c>
       <c r="P17">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415658</v>
       </c>
       <c r="Q17">
-        <v>352.3668266678678</v>
+        <v>337.5571273377813</v>
       </c>
       <c r="R17">
-        <v>3171.30144001081</v>
+        <v>3038.014146040031</v>
       </c>
       <c r="S17">
-        <v>0.06747668761674913</v>
+        <v>0.05799754516335551</v>
       </c>
       <c r="T17">
-        <v>0.06747668761674913</v>
+        <v>0.05799754516335551</v>
       </c>
     </row>
   </sheetData>
